--- a/TP04/Data_Water.xlsx
+++ b/TP04/Data_Water.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/samy/Desktop/PhD/TP_Dosimetrie_M2/TP04/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C348699D-3568-A042-9054-85B426DB90EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5780D6F-6409-F64F-B265-2AD2B7B9DBE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="1000" windowWidth="27640" windowHeight="15580" xr2:uid="{05BC6AB5-15F3-7B44-9968-07BBA2AA52AE}"/>
+    <workbookView xWindow="780" yWindow="980" windowWidth="27640" windowHeight="15580" xr2:uid="{05BC6AB5-15F3-7B44-9968-07BBA2AA52AE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,15 +36,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>Energy</t>
   </si>
   <si>
     <t>Scattering</t>
-  </si>
-  <si>
-    <t>Absorbtion</t>
   </si>
   <si>
     <t>PairProd</t>
@@ -54,6 +51,12 @@
   </si>
   <si>
     <t>Total</t>
+  </si>
+  <si>
+    <t>Absorption</t>
+  </si>
+  <si>
+    <t>Rayleigh</t>
   </si>
 </sst>
 </file>
@@ -413,35 +416,38 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3A78058-C83E-7D4E-AF92-390C14B23847}">
-  <dimension ref="A1:F37"/>
+  <dimension ref="A1:G47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:6" ht="17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="17" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
         <v>2</v>
       </c>
-      <c r="F1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>1E-3</v>
       </c>
@@ -455,13 +461,16 @@
         <v>1.319E-2</v>
       </c>
       <c r="E2" s="2">
+        <v>1.3720000000000001</v>
+      </c>
+      <c r="F2" s="2">
         <v>4076</v>
       </c>
-      <c r="F2" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G2" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>1.5E-3</v>
       </c>
@@ -475,13 +484,16 @@
         <v>2.673E-2</v>
       </c>
       <c r="E3" s="2">
+        <v>1.2689999999999999</v>
+      </c>
+      <c r="F3" s="2">
         <v>1374</v>
       </c>
-      <c r="F3" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G3" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>2E-3</v>
       </c>
@@ -495,13 +507,16 @@
         <v>4.1840000000000002E-2</v>
       </c>
       <c r="E4" s="2">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="F4" s="2">
         <v>616.20000000000005</v>
       </c>
-      <c r="F4" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G4" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>3.0000000000000001E-3</v>
       </c>
@@ -515,13 +530,16 @@
         <v>7.0749999999999993E-2</v>
       </c>
       <c r="E5" s="2">
+        <v>0.90869999999999995</v>
+      </c>
+      <c r="F5" s="2">
         <v>191.9</v>
       </c>
-      <c r="F5" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G5" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>4.0000000000000001E-3</v>
       </c>
@@ -535,13 +553,16 @@
         <v>9.4299999999999995E-2</v>
       </c>
       <c r="E6" s="2">
+        <v>0.70820000000000005</v>
+      </c>
+      <c r="F6" s="2">
         <v>81.97</v>
       </c>
-      <c r="F6" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G6" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>5.0000000000000001E-3</v>
       </c>
@@ -555,13 +576,16 @@
         <v>0.1123</v>
       </c>
       <c r="E7" s="2">
+        <v>0.55789999999999995</v>
+      </c>
+      <c r="F7" s="2">
         <v>41.92</v>
       </c>
-      <c r="F7" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G7" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <v>6.0000000000000001E-3</v>
       </c>
@@ -575,13 +599,16 @@
         <v>0.12590000000000001</v>
       </c>
       <c r="E8" s="2">
+        <v>0.44890000000000002</v>
+      </c>
+      <c r="F8" s="2">
         <v>24.07</v>
       </c>
-      <c r="F8" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G8" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
         <v>8.0000000000000002E-3</v>
       </c>
@@ -595,13 +622,16 @@
         <v>0.14399999999999999</v>
       </c>
       <c r="E9" s="2">
+        <v>0.31019999999999998</v>
+      </c>
+      <c r="F9" s="2">
         <v>9.9190000000000005</v>
       </c>
-      <c r="F9" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G9" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
         <v>0.01</v>
       </c>
@@ -615,13 +645,16 @@
         <v>0.155</v>
       </c>
       <c r="E10" s="2">
+        <v>0.23050000000000001</v>
+      </c>
+      <c r="F10" s="2">
         <v>4.944</v>
       </c>
-      <c r="F10" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G10" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
         <v>1.4999999999999999E-2</v>
       </c>
@@ -635,13 +668,16 @@
         <v>0.1699</v>
       </c>
       <c r="E11" s="2">
+        <v>0.1333</v>
+      </c>
+      <c r="F11" s="2">
         <v>1.369</v>
       </c>
-      <c r="F11" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G11" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
         <v>0.02</v>
       </c>
@@ -655,13 +691,16 @@
         <v>0.1774</v>
       </c>
       <c r="E12" s="2">
+        <v>8.856E-2</v>
+      </c>
+      <c r="F12" s="2">
         <v>0.54390000000000005</v>
       </c>
-      <c r="F12" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G12" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
         <v>0.03</v>
       </c>
@@ -675,13 +714,16 @@
         <v>0.18290000000000001</v>
       </c>
       <c r="E13" s="2">
+        <v>4.6940000000000003E-2</v>
+      </c>
+      <c r="F13" s="2">
         <v>0.14580000000000001</v>
       </c>
-      <c r="F13" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G13" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
         <v>0.04</v>
       </c>
@@ -695,13 +737,16 @@
         <v>0.1827</v>
       </c>
       <c r="E14" s="2">
+        <v>2.8740000000000002E-2</v>
+      </c>
+      <c r="F14" s="2">
         <v>5.6800000000000003E-2</v>
       </c>
-      <c r="F14" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G14" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
         <v>0.05</v>
       </c>
@@ -715,13 +760,16 @@
         <v>0.18029999999999999</v>
       </c>
       <c r="E15" s="2">
+        <v>1.9359999999999999E-2</v>
+      </c>
+      <c r="F15" s="2">
         <v>2.725E-2</v>
       </c>
-      <c r="F15" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G15" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
         <v>0.06</v>
       </c>
@@ -735,13 +783,16 @@
         <v>0.17699999999999999</v>
       </c>
       <c r="E16" s="2">
+        <v>1.392E-2</v>
+      </c>
+      <c r="F16" s="2">
         <v>1.4930000000000001E-2</v>
       </c>
-      <c r="F16" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G16" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="2">
         <v>0.08</v>
       </c>
@@ -755,13 +806,16 @@
         <v>0.16969999999999999</v>
       </c>
       <c r="E17" s="2">
+        <v>8.1650000000000004E-3</v>
+      </c>
+      <c r="F17" s="2">
         <v>5.77E-3</v>
       </c>
-      <c r="F17" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G17" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="2">
         <v>0.1</v>
       </c>
@@ -775,13 +829,16 @@
         <v>0.16259999999999999</v>
       </c>
       <c r="E18" s="2">
+        <v>5.3489999999999996E-3</v>
+      </c>
+      <c r="F18" s="2">
         <v>2.7629999999999998E-3</v>
       </c>
-      <c r="F18" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G18" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="2">
         <v>0.15</v>
       </c>
@@ -795,13 +852,16 @@
         <v>0.1474</v>
       </c>
       <c r="E19" s="2">
+        <v>2.4420000000000002E-3</v>
+      </c>
+      <c r="F19" s="2">
         <v>7.3079999999999998E-4</v>
       </c>
-      <c r="F19" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G19" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" s="2">
         <v>0.2</v>
       </c>
@@ -815,13 +875,16 @@
         <v>0.1353</v>
       </c>
       <c r="E20" s="2">
+        <v>1.3879999999999999E-3</v>
+      </c>
+      <c r="F20" s="2">
         <v>2.8870000000000002E-4</v>
       </c>
-      <c r="F20" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G20" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" s="2">
         <v>0.3</v>
       </c>
@@ -835,13 +898,16 @@
         <v>0.1179</v>
       </c>
       <c r="E21" s="2">
+        <v>6.2149999999999998E-4</v>
+      </c>
+      <c r="F21" s="2">
         <v>8.1600000000000005E-5</v>
       </c>
-      <c r="F21" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G21" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" s="2">
         <v>0.4</v>
       </c>
@@ -855,13 +921,16 @@
         <v>0.10580000000000001</v>
       </c>
       <c r="E22" s="2">
+        <v>3.5060000000000001E-4</v>
+      </c>
+      <c r="F22" s="2">
         <v>3.4929999999999999E-5</v>
       </c>
-      <c r="F22" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G22" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" s="2">
         <v>0.5</v>
       </c>
@@ -875,13 +944,16 @@
         <v>9.6629999999999994E-2</v>
       </c>
       <c r="E23" s="2">
+        <v>2.2469999999999999E-4</v>
+      </c>
+      <c r="F23" s="2">
         <v>1.8830000000000001E-5</v>
       </c>
-      <c r="F23" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G23" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" s="2">
         <v>0.6</v>
       </c>
@@ -895,13 +967,16 @@
         <v>8.9389999999999997E-2</v>
       </c>
       <c r="E24" s="2">
+        <v>1.561E-4</v>
+      </c>
+      <c r="F24" s="2">
         <v>1.173E-5</v>
       </c>
-      <c r="F24" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G24" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" s="2">
         <v>0.8</v>
       </c>
@@ -915,13 +990,16 @@
         <v>7.8560000000000005E-2</v>
       </c>
       <c r="E25" s="2">
+        <v>8.7899999999999995E-5</v>
+      </c>
+      <c r="F25" s="2">
         <v>5.9200000000000001E-6</v>
       </c>
-      <c r="F25" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G25" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" s="2">
         <v>1</v>
       </c>
@@ -935,13 +1013,16 @@
         <v>7.0660000000000001E-2</v>
       </c>
       <c r="E26" s="2">
+        <v>5.6270000000000002E-5</v>
+      </c>
+      <c r="F26" s="2">
         <v>3.681E-6</v>
       </c>
-      <c r="F26" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G26" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" s="2">
         <v>1.25</v>
       </c>
@@ -955,13 +1036,16 @@
         <v>6.318E-2</v>
       </c>
       <c r="E27" s="2">
+        <v>5.3879999999999999E-5</v>
+      </c>
+      <c r="F27" s="2">
         <v>2.3290000000000001E-6</v>
       </c>
-      <c r="F27" s="2">
+      <c r="G27" s="2">
         <v>1.7770000000000001E-5</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" s="2">
         <v>1.5</v>
       </c>
@@ -975,13 +1059,16 @@
         <v>5.7419999999999999E-2</v>
       </c>
       <c r="E28" s="2">
+        <v>3.6029999999999999E-5</v>
+      </c>
+      <c r="F28" s="2">
         <v>1.6899999999999999E-6</v>
       </c>
-      <c r="F28" s="2">
+      <c r="G28" s="2">
         <v>9.8200000000000002E-5</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" s="2">
         <v>2</v>
       </c>
@@ -995,13 +1082,16 @@
         <v>4.9009999999999998E-2</v>
       </c>
       <c r="E29" s="2">
+        <v>2.5009999999999999E-5</v>
+      </c>
+      <c r="F29" s="2">
         <v>1.063E-6</v>
       </c>
-      <c r="F29" s="2">
+      <c r="G29" s="2">
         <v>3.9080000000000001E-4</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" s="2">
         <v>3</v>
       </c>
@@ -1015,13 +1105,16 @@
         <v>3.8550000000000001E-2</v>
       </c>
       <c r="E30" s="2">
+        <v>1.4070000000000001E-5</v>
+      </c>
+      <c r="F30" s="2">
         <v>5.9370000000000003E-7</v>
       </c>
-      <c r="F30" s="2">
+      <c r="G30" s="2">
         <v>1.1169999999999999E-3</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" s="2">
         <v>4</v>
       </c>
@@ -1035,13 +1128,16 @@
         <v>3.2160000000000001E-2</v>
       </c>
       <c r="E31" s="2">
+        <v>1.347E-5</v>
+      </c>
+      <c r="F31" s="2">
         <v>4.0750000000000002E-7</v>
       </c>
-      <c r="F31" s="2">
+      <c r="G31" s="2">
         <v>1.812E-3</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" s="2">
         <v>5</v>
       </c>
@@ -1055,13 +1151,16 @@
         <v>2.777E-2</v>
       </c>
       <c r="E32" s="2">
+        <v>6.2550000000000003E-6</v>
+      </c>
+      <c r="F32" s="2">
         <v>3.0899999999999997E-7</v>
       </c>
-      <c r="F32" s="2">
+      <c r="G32" s="2">
         <v>2.431E-3</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" s="2">
         <v>6</v>
       </c>
@@ -1075,13 +1174,16 @@
         <v>2.4539999999999999E-2</v>
       </c>
       <c r="E33" s="2">
+        <v>3.5190000000000001E-6</v>
+      </c>
+      <c r="F33" s="2">
         <v>2.4839999999999997E-7</v>
       </c>
-      <c r="F33" s="2">
+      <c r="G33" s="2">
         <v>2.9870000000000001E-3</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" s="2">
         <v>8</v>
       </c>
@@ -1095,13 +1197,16 @@
         <v>2.0080000000000001E-2</v>
       </c>
       <c r="E34" s="2">
+        <v>2.2520000000000002E-6</v>
+      </c>
+      <c r="F34" s="2">
         <v>1.7800000000000001E-7</v>
       </c>
-      <c r="F34" s="2">
+      <c r="G34" s="2">
         <v>3.9269999999999999E-3</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35" s="2">
         <v>10</v>
       </c>
@@ -1115,13 +1220,16 @@
         <v>1.7100000000000001E-2</v>
       </c>
       <c r="E35" s="2">
+        <v>1.564E-6</v>
+      </c>
+      <c r="F35" s="2">
         <v>1.3860000000000001E-7</v>
       </c>
-      <c r="F35" s="2">
+      <c r="G35" s="2">
         <v>4.6990000000000001E-3</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" s="2">
         <v>15</v>
       </c>
@@ -1135,13 +1243,16 @@
         <v>1.2659999999999999E-2</v>
       </c>
       <c r="E36" s="2">
+        <v>1.1489999999999999E-6</v>
+      </c>
+      <c r="F36" s="2">
         <v>8.9060000000000005E-8</v>
       </c>
-      <c r="F36" s="2">
+      <c r="G36" s="2">
         <v>6.1409999999999998E-3</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37" s="2">
         <v>20</v>
       </c>
@@ -1155,10 +1266,63 @@
         <v>1.0160000000000001E-2</v>
       </c>
       <c r="E37" s="2">
+        <v>8.7960000000000001E-7</v>
+      </c>
+      <c r="F37" s="2">
         <v>6.5550000000000001E-8</v>
       </c>
-      <c r="F37" s="2">
+      <c r="G37" s="2">
         <v>7.1859999999999997E-3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E38" s="2">
+        <v>6.9510000000000002E-7</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E39" s="2">
+        <v>5.6300000000000005E-7</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E40" s="2">
+        <v>4.6520000000000001E-7</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E41" s="2">
+        <v>3.9089999999999999E-7</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E42" s="2">
+        <v>3.3309999999999999E-7</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E43" s="2">
+        <v>2.8719999999999998E-7</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E44" s="2">
+        <v>2.502E-7</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E45" s="2">
+        <v>2.199E-7</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E46" s="2">
+        <v>1.737E-7</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E47" s="2">
+        <v>1.4070000000000001E-7</v>
       </c>
     </row>
   </sheetData>
